--- a/dataArchive/TestCases.xlsx
+++ b/dataArchive/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="11595" windowWidth="20700" xWindow="360" yWindow="30"/>
+    <workbookView activeTab="1" windowHeight="11595" windowWidth="20700" xWindow="360" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageUC" r:id="rId1" sheetId="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="515">
   <si>
     <t>TC_Name</t>
   </si>
@@ -2385,12 +2385,6 @@
   <si>
     <t>Following message pop up should be displayed
 "Invalid username or Password.try again"</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>same as Expected Output</t>
   </si>
 </sst>
 </file>
@@ -3020,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3071,14 +3065,10 @@
       <c r="D2" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -3096,11 +3086,9 @@
         <v>466</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -3118,11 +3106,9 @@
         <v>468</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H4" s="24"/>
     </row>
@@ -3140,11 +3126,9 @@
         <v>469</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
-        <v>63</v>
-      </c>
+      <c r="F5" s="25"/>
       <c r="G5" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H5" s="24"/>
     </row>
@@ -3162,11 +3146,9 @@
         <v>470</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
-        <v>63</v>
-      </c>
+      <c r="F6" s="24"/>
       <c r="G6" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H6" s="24"/>
     </row>
@@ -3184,11 +3166,9 @@
         <v>513</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
-        <v>63</v>
-      </c>
+      <c r="F7" s="24"/>
       <c r="G7" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H7" s="24"/>
     </row>
@@ -3206,11 +3186,9 @@
         <v>471</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
-        <v>63</v>
-      </c>
+      <c r="F8" s="24"/>
       <c r="G8" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H8" s="24"/>
     </row>
@@ -3228,11 +3206,9 @@
         <v>472</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="F9" s="26"/>
       <c r="G9" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -3250,11 +3226,9 @@
         <v>514</v>
       </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H10" s="24"/>
     </row>
@@ -3272,11 +3246,9 @@
         <v>473</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H11" s="24"/>
     </row>
@@ -3294,9 +3266,7 @@
         <v>474</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="4" t="s">
-        <v>449</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="28" t="s">
         <v>444</v>
       </c>
@@ -3313,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/dataArchive/TestCases.xlsx
+++ b/dataArchive/TestCases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11595" windowWidth="20700" xWindow="360" yWindow="30"/>
+    <workbookView activeTab="1" windowHeight="11595" windowWidth="25755" xWindow="360" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageUC" r:id="rId1" sheetId="1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">ProfilePageUC!$A$1:$E$136</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="519">
   <si>
     <t>TC_Name</t>
   </si>
@@ -2386,78 +2386,215 @@
     <t>Following message pop up should be displayed
 "Invalid username or Password.try again"</t>
   </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>same as Expected Output</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element not present </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="29">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Consolas"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="12.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2477,8 +2614,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2568,33 +2891,174 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="7"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="5"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="5" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="6" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="7" fontId="18" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="7" fontId="19" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="8" fontId="20" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="0" fontId="21" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="16" fillId="0" fontId="22" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="23" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="24" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="25" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="27" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="28" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2603,47 +3067,47 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2667,7 +3131,7 @@
     <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2679,16 +3143,64 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="26"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="30"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="34"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="38"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="42"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="46"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="27"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="31"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="35"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="39"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="43"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="28"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="32"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="36"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="40"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="44"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="25"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="29"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="33"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="37"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="41"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="45"/>
+    <cellStyle builtinId="27" name="Bad" xfId="23"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="18"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="19"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="6"/>
+    <cellStyle builtinId="53" name="Explanatory Text" xfId="49"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="26" name="Good" xfId="22"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="12"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="13"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="14"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="15"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
+    <cellStyle builtinId="20" name="Input" xfId="16"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="20"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="24"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="21" name="Output" xfId="17"/>
+    <cellStyle builtinId="5" name="Percent" xfId="4"/>
+    <cellStyle builtinId="15" name="Title" xfId="11"/>
+    <cellStyle builtinId="25" name="Total" xfId="21"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="10"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -3018,15 +3530,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="29" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="18.37999916" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="5" customWidth="true" width="40.13000107" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" style="29" width="14.13000011" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" width="40.13000107" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row ht="17.300000" r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3052,7 +3564,7 @@
         <v>454</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:8">
+    <row ht="67.550000" r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3065,14 +3577,18 @@
       <c r="D2" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="G2" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H2" s="24"/>
     </row>
-    <row ht="45" r="3" spans="1:8">
+    <row ht="50.800000" r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3085,14 +3601,18 @@
       <c r="D3" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="G3" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H3" s="24"/>
     </row>
-    <row ht="45" r="4" spans="1:8">
+    <row ht="50.800000" r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3105,14 +3625,18 @@
       <c r="D4" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="G4" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H4" s="24"/>
     </row>
-    <row ht="45" r="5" spans="1:8">
+    <row ht="50.800000" r="5" spans="1:8">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -3125,14 +3649,18 @@
       <c r="D5" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>515</v>
+      </c>
       <c r="G5" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H5" s="24"/>
     </row>
-    <row ht="45" r="6" spans="1:8">
+    <row ht="50.800000" r="6" spans="1:8">
       <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
@@ -3146,13 +3674,15 @@
         <v>470</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>449</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row ht="30" r="7" spans="1:8">
+    <row ht="34.050000" r="7" spans="1:8">
       <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
@@ -3165,14 +3695,18 @@
       <c r="D7" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>515</v>
+      </c>
       <c r="G7" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H7" s="24"/>
     </row>
-    <row ht="30" r="8" spans="1:8">
+    <row ht="34.050000" r="8" spans="1:8">
       <c r="A8" s="21" t="s">
         <v>10</v>
       </c>
@@ -3186,13 +3720,15 @@
         <v>471</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>449</v>
+      </c>
       <c r="G8" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H8" s="24"/>
     </row>
-    <row ht="30" r="9" spans="1:8">
+    <row ht="34.050000" r="9" spans="1:8">
       <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
@@ -3206,13 +3742,15 @@
         <v>472</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>449</v>
+      </c>
       <c r="G9" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row ht="60" r="10" spans="1:8">
+    <row ht="67.550000" r="10" spans="1:8">
       <c r="A10" s="21" t="s">
         <v>34</v>
       </c>
@@ -3225,14 +3763,18 @@
       <c r="D10" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="G10" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row ht="30" r="11" spans="1:8">
+    <row ht="34.050000" r="11" spans="1:8">
       <c r="A11" s="21" t="s">
         <v>44</v>
       </c>
@@ -3245,14 +3787,18 @@
       <c r="D11" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="G11" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row ht="60" r="12" spans="1:8">
+    <row ht="67.550000" r="12" spans="1:8">
       <c r="A12" s="21" t="s">
         <v>442</v>
       </c>
@@ -3265,8 +3811,12 @@
       <c r="D12" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="G12" s="28" t="s">
         <v>444</v>
       </c>
@@ -3274,8 +3824,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.30" header="0.30" left="0.70" right="0.70" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
@@ -3284,19 +3834,19 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="29" width="12.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="23.00499916" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="5" customWidth="true" width="35.00500107" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" width="15.25500011" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" style="29" width="12.75500011" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" width="38.38000107" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row ht="17.300000" r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3322,7 +3872,7 @@
         <v>454</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:8">
+    <row ht="50.800000" r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -3336,13 +3886,15 @@
         <v>507</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="G2" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row ht="45" r="3" spans="1:8">
+    <row ht="50.800000" r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -3356,13 +3908,15 @@
         <v>508</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="G3" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H3" s="32"/>
     </row>
-    <row ht="45" r="4" spans="1:8">
+    <row ht="50.800000" r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -3376,13 +3930,15 @@
         <v>509</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="G4" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H4" s="32"/>
     </row>
-    <row ht="45" r="5" spans="1:8">
+    <row ht="50.800000" r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -3396,13 +3952,15 @@
         <v>510</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="G5" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row ht="45" r="6" spans="1:8">
+    <row ht="50.800000" r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -3416,13 +3974,15 @@
         <v>511</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>444</v>
       </c>
       <c r="H6" s="32"/>
     </row>
-    <row ht="135" r="7" spans="1:8">
+    <row ht="151.300000" r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -3437,14 +3997,14 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row ht="30" r="8" spans="1:8">
+    <row ht="34.050000" r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -3457,16 +4017,18 @@
       <c r="D8" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>516</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>63</v>
+        <v>515</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H8" s="32"/>
     </row>
-    <row ht="90" r="9" spans="1:8">
+    <row ht="84.300000" r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3479,16 +4041,18 @@
       <c r="D9" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>516</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>63</v>
+        <v>515</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H9" s="32"/>
     </row>
-    <row ht="60" r="10" spans="1:8">
+    <row ht="50.800000" r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3503,14 +4067,14 @@
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H10" s="32"/>
     </row>
-    <row ht="60" r="11" spans="1:8">
+    <row ht="50.800000" r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -3525,14 +4089,14 @@
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H11" s="32"/>
     </row>
-    <row ht="60" r="12" spans="1:8">
+    <row ht="50.800000" r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3547,14 +4111,14 @@
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H12" s="32"/>
     </row>
-    <row ht="60" r="13" spans="1:8">
+    <row ht="50.800000" r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -3574,7 +4138,7 @@
       </c>
       <c r="H13" s="32"/>
     </row>
-    <row ht="60" r="14" spans="1:8">
+    <row ht="50.800000" r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3589,14 +4153,14 @@
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H14" s="32"/>
     </row>
-    <row ht="60" r="15" spans="1:8">
+    <row ht="50.800000" r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -3614,11 +4178,11 @@
         <v>63</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="H15" s="32"/>
     </row>
-    <row ht="60" r="16" spans="1:8">
+    <row ht="50.800000" r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -3633,14 +4197,14 @@
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H16" s="32"/>
     </row>
-    <row ht="60" r="17" spans="1:8">
+    <row ht="50.800000" r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -3655,14 +4219,14 @@
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H17" s="32"/>
     </row>
-    <row ht="60" r="18" spans="1:8">
+    <row ht="50.800000" r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -3677,14 +4241,14 @@
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H18" s="32"/>
     </row>
-    <row ht="60" r="19" spans="1:8">
+    <row ht="50.800000" r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
@@ -3699,14 +4263,14 @@
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H19" s="32"/>
     </row>
-    <row ht="60" r="20" spans="1:8">
+    <row ht="50.800000" r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
@@ -3721,14 +4285,14 @@
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H20" s="32"/>
     </row>
-    <row ht="60" r="21" spans="1:8">
+    <row ht="50.800000" r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
@@ -3743,16 +4307,16 @@
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="4" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H21" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.30" header="0.30" left="0.70" right="0.70" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -3766,12 +4330,12 @@
       <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="50.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="22.87999916" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="3" customWidth="true" width="50.63000107" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" width="17.12999916" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" width="15.13000011" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3791,7 +4355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5">
+    <row ht="15.750000" r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>65</v>
       </c>
@@ -3801,12 +4365,14 @@
       <c r="C2" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>515</v>
+      </c>
       <c r="E2" s="23" t="s">
         <v>444</v>
       </c>
     </row>
-    <row ht="141.75" r="3" spans="1:5">
+    <row ht="141.750000" r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>67</v>
       </c>
@@ -3823,7 +4389,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:5">
+    <row ht="15.750000" r="4" spans="1:5">
       <c r="A4" s="15" t="s">
         <v>64</v>
       </c>
@@ -3840,7 +4406,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="173.25" r="5" spans="1:5">
+    <row ht="173.250000" r="5" spans="1:5">
       <c r="A5" s="15" t="s">
         <v>68</v>
       </c>
@@ -3857,7 +4423,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="6" spans="1:5">
+    <row ht="31.500000" r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>69</v>
       </c>
@@ -3874,7 +4440,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="7" spans="1:5">
+    <row ht="47.250000" r="7" spans="1:5">
       <c r="A7" s="15" t="s">
         <v>70</v>
       </c>
@@ -3891,7 +4457,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="8" spans="1:5">
+    <row ht="31.500000" r="8" spans="1:5">
       <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
@@ -3908,7 +4474,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="1:5">
+    <row ht="15.750000" r="9" spans="1:5">
       <c r="A9" s="15" t="s">
         <v>72</v>
       </c>
@@ -3925,7 +4491,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="10" spans="1:5">
+    <row ht="31.500000" r="10" spans="1:5">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -3942,7 +4508,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="11" spans="1:5">
+    <row ht="31.500000" r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>74</v>
       </c>
@@ -3959,7 +4525,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="12" spans="1:5">
+    <row ht="47.250000" r="12" spans="1:5">
       <c r="A12" s="15" t="s">
         <v>75</v>
       </c>
@@ -3976,7 +4542,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="13" spans="1:5">
+    <row ht="15.750000" r="13" spans="1:5">
       <c r="A13" s="15" t="s">
         <v>76</v>
       </c>
@@ -3993,7 +4559,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="14" spans="1:5">
+    <row ht="31.500000" r="14" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>77</v>
       </c>
@@ -4010,7 +4576,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="15" spans="1:5">
+    <row ht="31.500000" r="15" spans="1:5">
       <c r="A15" s="15" t="s">
         <v>78</v>
       </c>
@@ -4027,7 +4593,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="16" spans="1:5">
+    <row ht="31.500000" r="16" spans="1:5">
       <c r="A16" s="15" t="s">
         <v>268</v>
       </c>
@@ -4044,7 +4610,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="17" spans="1:5">
+    <row ht="31.500000" r="17" spans="1:5">
       <c r="A17" s="15" t="s">
         <v>269</v>
       </c>
@@ -4061,7 +4627,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="204.75" r="18" spans="1:5">
+    <row ht="204.750000" r="18" spans="1:5">
       <c r="A18" s="15" t="s">
         <v>270</v>
       </c>
@@ -4078,7 +4644,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="19" spans="1:5">
+    <row ht="31.500000" r="19" spans="1:5">
       <c r="A19" s="15" t="s">
         <v>271</v>
       </c>
@@ -4095,7 +4661,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="20" spans="1:5">
+    <row ht="31.500000" r="20" spans="1:5">
       <c r="A20" s="15" t="s">
         <v>272</v>
       </c>
@@ -4112,7 +4678,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="21" spans="1:5">
+    <row ht="31.500000" r="21" spans="1:5">
       <c r="A21" s="15" t="s">
         <v>273</v>
       </c>
@@ -4129,7 +4695,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="22" spans="1:5">
+    <row ht="47.250000" r="22" spans="1:5">
       <c r="A22" s="15" t="s">
         <v>274</v>
       </c>
@@ -4146,7 +4712,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="23" spans="1:5">
+    <row ht="15.750000" r="23" spans="1:5">
       <c r="A23" s="15" t="s">
         <v>275</v>
       </c>
@@ -4163,7 +4729,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="24" spans="1:5">
+    <row ht="15.750000" r="24" spans="1:5">
       <c r="A24" s="15" t="s">
         <v>276</v>
       </c>
@@ -4180,7 +4746,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="25" spans="1:5">
+    <row ht="31.500000" r="25" spans="1:5">
       <c r="A25" s="15" t="s">
         <v>277</v>
       </c>
@@ -4197,7 +4763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="26" spans="1:5">
+    <row ht="31.500000" r="26" spans="1:5">
       <c r="A26" s="15" t="s">
         <v>278</v>
       </c>
@@ -4214,7 +4780,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="27" spans="1:5">
+    <row ht="47.250000" r="27" spans="1:5">
       <c r="A27" s="15" t="s">
         <v>279</v>
       </c>
@@ -4231,7 +4797,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="28" spans="1:5">
+    <row ht="31.500000" r="28" spans="1:5">
       <c r="A28" s="15" t="s">
         <v>280</v>
       </c>
@@ -4248,7 +4814,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="29" spans="1:5">
+    <row ht="31.500000" r="29" spans="1:5">
       <c r="A29" s="15" t="s">
         <v>281</v>
       </c>
@@ -4265,7 +4831,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="30" spans="1:5">
+    <row ht="31.500000" r="30" spans="1:5">
       <c r="A30" s="15" t="s">
         <v>282</v>
       </c>
@@ -4282,7 +4848,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="63" r="31" spans="1:5">
+    <row ht="63.000000" r="31" spans="1:5">
       <c r="A31" s="15" t="s">
         <v>283</v>
       </c>
@@ -4299,7 +4865,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="189" r="32" spans="1:5">
+    <row ht="189.000000" r="32" spans="1:5">
       <c r="A32" s="15" t="s">
         <v>284</v>
       </c>
@@ -4316,7 +4882,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="126" r="33" spans="1:5">
+    <row ht="126.000000" r="33" spans="1:5">
       <c r="A33" s="15" t="s">
         <v>285</v>
       </c>
@@ -4333,7 +4899,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="94.5" r="34" spans="1:5">
+    <row ht="94.500000" r="34" spans="1:5">
       <c r="A34" s="15" t="s">
         <v>286</v>
       </c>
@@ -4350,7 +4916,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="35" spans="1:5">
+    <row ht="31.500000" r="35" spans="1:5">
       <c r="A35" s="15" t="s">
         <v>287</v>
       </c>
@@ -4367,7 +4933,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="36" spans="1:5">
+    <row ht="31.500000" r="36" spans="1:5">
       <c r="A36" s="15" t="s">
         <v>288</v>
       </c>
@@ -4384,7 +4950,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="37" spans="1:5">
+    <row ht="31.500000" r="37" spans="1:5">
       <c r="A37" s="15" t="s">
         <v>289</v>
       </c>
@@ -4401,7 +4967,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="38" spans="1:5">
+    <row ht="31.500000" r="38" spans="1:5">
       <c r="A38" s="15" t="s">
         <v>290</v>
       </c>
@@ -4418,7 +4984,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="39" spans="1:5">
+    <row ht="31.500000" r="39" spans="1:5">
       <c r="A39" s="15" t="s">
         <v>291</v>
       </c>
@@ -4435,7 +5001,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="63" r="40" spans="1:5">
+    <row ht="63.000000" r="40" spans="1:5">
       <c r="A40" s="15" t="s">
         <v>292</v>
       </c>
@@ -4452,7 +5018,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="41" spans="1:5">
+    <row ht="15.750000" r="41" spans="1:5">
       <c r="A41" s="15" t="s">
         <v>445</v>
       </c>
@@ -4469,7 +5035,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="42" spans="1:5">
+    <row ht="15.750000" r="42" spans="1:5">
       <c r="A42" s="15" t="s">
         <v>446</v>
       </c>
@@ -4486,7 +5052,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="43" spans="1:5">
+    <row ht="31.500000" r="43" spans="1:5">
       <c r="A43" s="15" t="s">
         <v>293</v>
       </c>
@@ -4503,7 +5069,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="44" spans="1:5">
+    <row ht="31.500000" r="44" spans="1:5">
       <c r="A44" s="15" t="s">
         <v>294</v>
       </c>
@@ -4520,7 +5086,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="141.75" r="45" spans="1:5">
+    <row ht="141.750000" r="45" spans="1:5">
       <c r="A45" s="15" t="s">
         <v>295</v>
       </c>
@@ -4537,7 +5103,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="46" spans="1:5">
+    <row ht="47.250000" r="46" spans="1:5">
       <c r="A46" s="15" t="s">
         <v>296</v>
       </c>
@@ -4554,7 +5120,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="94.5" r="47" spans="1:5">
+    <row ht="94.500000" r="47" spans="1:5">
       <c r="A47" s="15" t="s">
         <v>297</v>
       </c>
@@ -4571,7 +5137,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="48" spans="1:5">
+    <row ht="31.500000" r="48" spans="1:5">
       <c r="A48" s="15" t="s">
         <v>298</v>
       </c>
@@ -4588,7 +5154,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="49" spans="1:5">
+    <row ht="31.500000" r="49" spans="1:5">
       <c r="A49" s="15" t="s">
         <v>299</v>
       </c>
@@ -4605,7 +5171,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="94.5" r="50" spans="1:5">
+    <row ht="94.500000" r="50" spans="1:5">
       <c r="A50" s="15" t="s">
         <v>300</v>
       </c>
@@ -4622,7 +5188,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="51" spans="1:5">
+    <row ht="31.500000" r="51" spans="1:5">
       <c r="A51" s="15" t="s">
         <v>301</v>
       </c>
@@ -4639,7 +5205,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="52" spans="1:5">
+    <row ht="31.500000" r="52" spans="1:5">
       <c r="A52" s="15" t="s">
         <v>302</v>
       </c>
@@ -4656,7 +5222,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="53" spans="1:5">
+    <row ht="31.500000" r="53" spans="1:5">
       <c r="A53" s="15" t="s">
         <v>303</v>
       </c>
@@ -4673,7 +5239,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="54" spans="1:5">
+    <row ht="47.250000" r="54" spans="1:5">
       <c r="A54" s="15" t="s">
         <v>304</v>
       </c>
@@ -4690,7 +5256,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="55" spans="1:5">
+    <row ht="31.500000" r="55" spans="1:5">
       <c r="A55" s="15" t="s">
         <v>305</v>
       </c>
@@ -4707,7 +5273,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="56" spans="1:5">
+    <row ht="31.500000" r="56" spans="1:5">
       <c r="A56" s="15" t="s">
         <v>306</v>
       </c>
@@ -4724,7 +5290,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="57" spans="1:5">
+    <row ht="47.250000" r="57" spans="1:5">
       <c r="A57" s="15" t="s">
         <v>307</v>
       </c>
@@ -4741,7 +5307,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="173.25" r="58" spans="1:5">
+    <row ht="173.250000" r="58" spans="1:5">
       <c r="A58" s="15" t="s">
         <v>308</v>
       </c>
@@ -4758,7 +5324,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="110.25" r="59" spans="1:5">
+    <row ht="110.250000" r="59" spans="1:5">
       <c r="A59" s="15" t="s">
         <v>309</v>
       </c>
@@ -4775,7 +5341,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="157.5" r="60" spans="1:5">
+    <row ht="157.500000" r="60" spans="1:5">
       <c r="A60" s="15" t="s">
         <v>310</v>
       </c>
@@ -4792,7 +5358,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="173.25" r="61" spans="1:5">
+    <row ht="173.250000" r="61" spans="1:5">
       <c r="A61" s="15" t="s">
         <v>311</v>
       </c>
@@ -4809,7 +5375,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="62" spans="1:5">
+    <row ht="31.500000" r="62" spans="1:5">
       <c r="A62" s="15" t="s">
         <v>312</v>
       </c>
@@ -4826,7 +5392,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="63" spans="1:5">
+    <row ht="31.500000" r="63" spans="1:5">
       <c r="A63" s="15" t="s">
         <v>313</v>
       </c>
@@ -4843,7 +5409,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="110.25" r="64" spans="1:5">
+    <row ht="110.250000" r="64" spans="1:5">
       <c r="A64" s="15" t="s">
         <v>314</v>
       </c>
@@ -4860,7 +5426,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="65" spans="1:5">
+    <row ht="31.500000" r="65" spans="1:5">
       <c r="A65" s="15" t="s">
         <v>315</v>
       </c>
@@ -4877,7 +5443,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="66" spans="1:5">
+    <row ht="31.500000" r="66" spans="1:5">
       <c r="A66" s="15" t="s">
         <v>316</v>
       </c>
@@ -4894,7 +5460,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="67" spans="1:5">
+    <row ht="47.250000" r="67" spans="1:5">
       <c r="A67" s="15" t="s">
         <v>317</v>
       </c>
@@ -4911,7 +5477,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="68" spans="1:5">
+    <row ht="31.500000" r="68" spans="1:5">
       <c r="A68" s="15" t="s">
         <v>318</v>
       </c>
@@ -4928,7 +5494,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="69" spans="1:5">
+    <row ht="31.500000" r="69" spans="1:5">
       <c r="A69" s="15" t="s">
         <v>319</v>
       </c>
@@ -4945,7 +5511,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="204.75" r="70" spans="1:5">
+    <row ht="204.750000" r="70" spans="1:5">
       <c r="A70" s="15" t="s">
         <v>320</v>
       </c>
@@ -4962,7 +5528,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="94.5" r="71" spans="1:5">
+    <row ht="94.500000" r="71" spans="1:5">
       <c r="A71" s="15" t="s">
         <v>321</v>
       </c>
@@ -4979,7 +5545,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="110.25" r="72" spans="1:5">
+    <row ht="110.250000" r="72" spans="1:5">
       <c r="A72" s="15" t="s">
         <v>322</v>
       </c>
@@ -4996,7 +5562,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="110.25" r="73" spans="1:5">
+    <row ht="110.250000" r="73" spans="1:5">
       <c r="A73" s="15" t="s">
         <v>323</v>
       </c>
@@ -5013,7 +5579,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="74" spans="1:5">
+    <row ht="47.250000" r="74" spans="1:5">
       <c r="A74" s="15" t="s">
         <v>324</v>
       </c>
@@ -5030,7 +5596,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="75" spans="1:5">
+    <row ht="31.500000" r="75" spans="1:5">
       <c r="A75" s="15" t="s">
         <v>325</v>
       </c>
@@ -5047,7 +5613,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="76" spans="1:5">
+    <row ht="47.250000" r="76" spans="1:5">
       <c r="A76" s="15" t="s">
         <v>326</v>
       </c>
@@ -5064,7 +5630,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="315" r="77" spans="1:5">
+    <row ht="315.000000" r="77" spans="1:5">
       <c r="A77" s="15" t="s">
         <v>327</v>
       </c>
@@ -5081,7 +5647,7 @@
         <v>448</v>
       </c>
     </row>
-    <row ht="31.5" r="78" spans="1:5">
+    <row ht="31.500000" r="78" spans="1:5">
       <c r="A78" s="15" t="s">
         <v>328</v>
       </c>
@@ -5098,7 +5664,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="409.5" r="79" spans="1:5">
+    <row ht="409.500000" r="79" spans="1:5">
       <c r="A79" s="15" t="s">
         <v>329</v>
       </c>
@@ -5115,7 +5681,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="80" spans="1:5">
+    <row ht="31.500000" r="80" spans="1:5">
       <c r="A80" s="15" t="s">
         <v>330</v>
       </c>
@@ -5132,7 +5698,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="81" spans="1:5">
+    <row ht="31.500000" r="81" spans="1:5">
       <c r="A81" s="15" t="s">
         <v>331</v>
       </c>
@@ -5149,7 +5715,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="82" spans="1:5">
+    <row ht="31.500000" r="82" spans="1:5">
       <c r="A82" s="15" t="s">
         <v>332</v>
       </c>
@@ -5166,7 +5732,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="83" spans="1:5">
+    <row ht="31.500000" r="83" spans="1:5">
       <c r="A83" s="15" t="s">
         <v>333</v>
       </c>
@@ -5183,7 +5749,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="84" spans="1:5">
+    <row ht="31.500000" r="84" spans="1:5">
       <c r="A84" s="15" t="s">
         <v>334</v>
       </c>
@@ -5200,7 +5766,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="85" spans="1:5">
+    <row ht="31.500000" r="85" spans="1:5">
       <c r="A85" s="15" t="s">
         <v>335</v>
       </c>
@@ -5217,7 +5783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="86" spans="1:5">
+    <row ht="15.750000" r="86" spans="1:5">
       <c r="A86" s="15" t="s">
         <v>336</v>
       </c>
@@ -5234,7 +5800,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="87" spans="1:5">
+    <row ht="31.500000" r="87" spans="1:5">
       <c r="A87" s="15" t="s">
         <v>337</v>
       </c>
@@ -5251,7 +5817,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="88" spans="1:5">
+    <row ht="31.500000" r="88" spans="1:5">
       <c r="A88" s="15" t="s">
         <v>338</v>
       </c>
@@ -5268,7 +5834,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="89" spans="1:5">
+    <row ht="15.750000" r="89" spans="1:5">
       <c r="A89" s="15" t="s">
         <v>339</v>
       </c>
@@ -5285,7 +5851,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="90" spans="1:5">
+    <row ht="31.500000" r="90" spans="1:5">
       <c r="A90" s="15" t="s">
         <v>340</v>
       </c>
@@ -5302,7 +5868,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="91" spans="1:5">
+    <row ht="31.500000" r="91" spans="1:5">
       <c r="A91" s="15" t="s">
         <v>341</v>
       </c>
@@ -5319,7 +5885,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="92" spans="1:5">
+    <row ht="31.500000" r="92" spans="1:5">
       <c r="A92" s="15" t="s">
         <v>342</v>
       </c>
@@ -5336,7 +5902,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="93" spans="1:5">
+    <row ht="15.750000" r="93" spans="1:5">
       <c r="A93" s="15" t="s">
         <v>343</v>
       </c>
@@ -5353,7 +5919,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="94" spans="1:5">
+    <row ht="31.500000" r="94" spans="1:5">
       <c r="A94" s="15" t="s">
         <v>344</v>
       </c>
@@ -5370,7 +5936,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="95" spans="1:5">
+    <row ht="15.750000" r="95" spans="1:5">
       <c r="A95" s="15" t="s">
         <v>345</v>
       </c>
@@ -5387,7 +5953,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="96" spans="1:5">
+    <row ht="31.500000" r="96" spans="1:5">
       <c r="A96" s="15" t="s">
         <v>346</v>
       </c>
@@ -5404,7 +5970,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="94.5" r="97" spans="1:5">
+    <row ht="94.500000" r="97" spans="1:5">
       <c r="A97" s="15" t="s">
         <v>347</v>
       </c>
@@ -5421,7 +5987,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="141.75" r="98" spans="1:5">
+    <row ht="141.750000" r="98" spans="1:5">
       <c r="A98" s="15" t="s">
         <v>348</v>
       </c>
@@ -5438,7 +6004,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="94.5" r="99" spans="1:5">
+    <row ht="94.500000" r="99" spans="1:5">
       <c r="A99" s="15" t="s">
         <v>349</v>
       </c>
@@ -5455,7 +6021,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="100" spans="1:5">
+    <row ht="31.500000" r="100" spans="1:5">
       <c r="A100" s="15" t="s">
         <v>350</v>
       </c>
@@ -5472,7 +6038,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="101" spans="1:5">
+    <row ht="31.500000" r="101" spans="1:5">
       <c r="A101" s="15" t="s">
         <v>351</v>
       </c>
@@ -5489,7 +6055,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="102" spans="1:5">
+    <row ht="31.500000" r="102" spans="1:5">
       <c r="A102" s="15" t="s">
         <v>352</v>
       </c>
@@ -5506,7 +6072,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="63" r="103" spans="1:5">
+    <row ht="63.000000" r="103" spans="1:5">
       <c r="A103" s="15" t="s">
         <v>353</v>
       </c>
@@ -5523,7 +6089,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="104" spans="1:5">
+    <row ht="15.750000" r="104" spans="1:5">
       <c r="A104" s="15" t="s">
         <v>354</v>
       </c>
@@ -5540,7 +6106,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="105" spans="1:5">
+    <row ht="15.750000" r="105" spans="1:5">
       <c r="A105" s="15" t="s">
         <v>355</v>
       </c>
@@ -5557,7 +6123,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="106" spans="1:5">
+    <row ht="15.750000" r="106" spans="1:5">
       <c r="A106" s="15" t="s">
         <v>356</v>
       </c>
@@ -5574,7 +6140,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="107" spans="1:5">
+    <row ht="31.500000" r="107" spans="1:5">
       <c r="A107" s="15" t="s">
         <v>357</v>
       </c>
@@ -5591,7 +6157,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="108" spans="1:5">
+    <row ht="15.750000" r="108" spans="1:5">
       <c r="A108" s="15" t="s">
         <v>358</v>
       </c>
@@ -5608,7 +6174,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="109" spans="1:5">
+    <row ht="15.750000" r="109" spans="1:5">
       <c r="A109" s="15" t="s">
         <v>359</v>
       </c>
@@ -5625,7 +6191,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="110" spans="1:5">
+    <row ht="15.750000" r="110" spans="1:5">
       <c r="A110" s="15" t="s">
         <v>360</v>
       </c>
@@ -5642,7 +6208,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="111" spans="1:5">
+    <row ht="15.750000" r="111" spans="1:5">
       <c r="A111" s="15" t="s">
         <v>361</v>
       </c>
@@ -5659,7 +6225,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="112" spans="1:5">
+    <row ht="15.750000" r="112" spans="1:5">
       <c r="A112" s="15" t="s">
         <v>362</v>
       </c>
@@ -5676,7 +6242,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="47.25" r="113" spans="1:5">
+    <row ht="47.250000" r="113" spans="1:5">
       <c r="A113" s="15" t="s">
         <v>363</v>
       </c>
@@ -5693,7 +6259,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="114" spans="1:5">
+    <row ht="31.500000" r="114" spans="1:5">
       <c r="A114" s="15" t="s">
         <v>364</v>
       </c>
@@ -5710,7 +6276,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="115" spans="1:5">
+    <row ht="31.500000" r="115" spans="1:5">
       <c r="A115" s="15" t="s">
         <v>365</v>
       </c>
@@ -5727,7 +6293,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="116" spans="1:5">
+    <row ht="31.500000" r="116" spans="1:5">
       <c r="A116" s="15" t="s">
         <v>366</v>
       </c>
@@ -5744,7 +6310,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="117" spans="1:5">
+    <row ht="31.500000" r="117" spans="1:5">
       <c r="A117" s="15" t="s">
         <v>367</v>
       </c>
@@ -5761,7 +6327,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="78.75" r="118" spans="1:5">
+    <row ht="78.750000" r="118" spans="1:5">
       <c r="A118" s="15" t="s">
         <v>368</v>
       </c>
@@ -5778,7 +6344,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="119" spans="1:5">
+    <row ht="15.750000" r="119" spans="1:5">
       <c r="A119" s="15" t="s">
         <v>369</v>
       </c>
@@ -5795,7 +6361,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="120" spans="1:5">
+    <row ht="15.750000" r="120" spans="1:5">
       <c r="A120" s="15" t="s">
         <v>370</v>
       </c>
@@ -5812,7 +6378,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="121" spans="1:5">
+    <row ht="31.500000" r="121" spans="1:5">
       <c r="A121" s="15" t="s">
         <v>371</v>
       </c>
@@ -5829,7 +6395,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="122" spans="1:5">
+    <row ht="15.750000" r="122" spans="1:5">
       <c r="A122" s="15" t="s">
         <v>372</v>
       </c>
@@ -5846,7 +6412,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="15.75" r="123" spans="1:5">
+    <row ht="15.750000" r="123" spans="1:5">
       <c r="A123" s="15" t="s">
         <v>373</v>
       </c>
@@ -5863,7 +6429,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="31.5" r="124" spans="1:5">
+    <row ht="31.500000" r="124" spans="1:5">
       <c r="A124" s="15" t="s">
         <v>374</v>
       </c>
@@ -5880,7 +6446,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="125" spans="1:5">
+    <row ht="31.500000" r="125" spans="1:5">
       <c r="A125" s="15" t="s">
         <v>375</v>
       </c>
@@ -5895,7 +6461,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="63" r="126" spans="1:5">
+    <row ht="63.000000" r="126" spans="1:5">
       <c r="A126" s="15" t="s">
         <v>376</v>
       </c>
@@ -5910,7 +6476,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="127" spans="1:5">
+    <row ht="31.500000" r="127" spans="1:5">
       <c r="A127" s="15" t="s">
         <v>377</v>
       </c>
@@ -5925,7 +6491,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="128" spans="1:5">
+    <row ht="31.500000" r="128" spans="1:5">
       <c r="A128" s="15" t="s">
         <v>378</v>
       </c>
@@ -5940,7 +6506,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="129" spans="1:5">
+    <row ht="31.500000" r="129" spans="1:5">
       <c r="A129" s="15" t="s">
         <v>379</v>
       </c>
@@ -5955,7 +6521,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="130" spans="1:5">
+    <row ht="31.500000" r="130" spans="1:5">
       <c r="A130" s="15" t="s">
         <v>380</v>
       </c>
@@ -5970,7 +6536,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="131" spans="1:5">
+    <row ht="31.500000" r="131" spans="1:5">
       <c r="A131" s="15" t="s">
         <v>381</v>
       </c>
@@ -5985,7 +6551,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="132" spans="1:5">
+    <row ht="31.500000" r="132" spans="1:5">
       <c r="A132" s="15" t="s">
         <v>382</v>
       </c>
@@ -6000,7 +6566,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="94.5" r="133" spans="1:5">
+    <row ht="94.500000" r="133" spans="1:5">
       <c r="A133" s="15" t="s">
         <v>383</v>
       </c>
@@ -6015,7 +6581,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="63" r="134" spans="1:5">
+    <row ht="63.000000" r="134" spans="1:5">
       <c r="A134" s="15" t="s">
         <v>384</v>
       </c>
@@ -6030,7 +6596,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="135" spans="1:5">
+    <row ht="31.500000" r="135" spans="1:5">
       <c r="A135" s="15" t="s">
         <v>385</v>
       </c>
@@ -6045,7 +6611,7 @@
         <v>444</v>
       </c>
     </row>
-    <row ht="31.5" r="136" spans="1:5">
+    <row ht="31.500000" r="136" spans="1:5">
       <c r="A136" s="15" t="s">
         <v>439</v>
       </c>
@@ -6076,7 +6642,7 @@
       <formula>"NORMAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.30" header="0.30" left="0.70" right="0.70" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>